--- a/WEEK formos/WEEK 05-11.xlsx
+++ b/WEEK formos/WEEK 05-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaponnik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDYING\Semester_6\Team_Software_Process\Cycle_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10D5A2F0-53F5-47B2-A6CB-F781BDA1152F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD13DE1C-C2BF-4A7F-8CE5-80342F7D9FAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27374" windowHeight="11164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -355,13 +355,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>153909</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:colOff>72428</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>18107</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -918,27 +918,27 @@
   <sheetPr codeName="WeekSummary"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="0.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="0.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="0.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="0.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="1.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="2"/>
+    <col min="12" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="str">
         <f>[0]!TSPProcessName &amp; " Week Summary - Form WEEK"</f>
         <v>TSPi Week Summary - Form WEEK</v>
@@ -948,7 +948,7 @@
       <c r="G1" s="9"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="16" customFormat="1" ht="12.85" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>26</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="16" customFormat="1" ht="12.85" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="15.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
@@ -1111,7 +1111,7 @@
       <c r="G13" s="9"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="24.25" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="I31" s="5">
         <f>SUM(I24:I29)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1461,13 +1461,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>152400</xdr:rowOff>
+                    <xdr:rowOff>153909</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:colOff>72428</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>18107</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/WEEK formos/WEEK 05-11.xlsx
+++ b/WEEK formos/WEEK 05-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDYING\Semester_6\Team_Software_Process\Cycle_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD13DE1C-C2BF-4A7F-8CE5-80342F7D9FAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF24D511-8B4F-406F-8DAA-08EC75F1EDEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27374" windowHeight="11164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,8 +918,8 @@
   <sheetPr codeName="WeekSummary"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.15" x14ac:dyDescent="0.2"/>
@@ -1164,8 +1164,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="5">
-        <f>$C16</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1184,7 +1183,6 @@
         <v>8</v>
       </c>
       <c r="I17" s="5">
-        <f>$C17</f>
         <v>8</v>
       </c>
     </row>
@@ -1204,8 +1202,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="5">
-        <f>$C18</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1224,8 +1221,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="5">
-        <f>$C19</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1253,7 +1249,7 @@
       </c>
       <c r="I21" s="5">
         <f>SUM(I15:I20)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">

--- a/WEEK formos/WEEK 05-11.xlsx
+++ b/WEEK formos/WEEK 05-11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDYING\Semester_6\Team_Software_Process\Cycle_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF24D511-8B4F-406F-8DAA-08EC75F1EDEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{652CD3F8-C022-4C85-B639-09666944E556}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27374" windowHeight="11164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Plan Week</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>TSPi dokumentacijos papildymas</t>
   </si>
 </sst>
 </file>
@@ -918,8 +921,8 @@
   <sheetPr codeName="WeekSummary"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.15" x14ac:dyDescent="0.2"/>
@@ -1039,10 +1042,10 @@
       <c r="C7" s="9"/>
       <c r="E7" s="9"/>
       <c r="G7" s="5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I7" s="5">
-        <v>32.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1052,10 +1055,10 @@
       <c r="C8" s="9"/>
       <c r="E8" s="9"/>
       <c r="G8" s="5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I8" s="5">
-        <v>32.5</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1065,10 +1068,10 @@
       <c r="C9" s="9"/>
       <c r="E9" s="9"/>
       <c r="G9" s="5">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5">
         <v>40</v>
-      </c>
-      <c r="I9" s="5">
-        <v>32.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1078,10 +1081,10 @@
       <c r="C10" s="9"/>
       <c r="E10" s="9"/>
       <c r="G10" s="5">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5">
         <v>40</v>
-      </c>
-      <c r="I10" s="5">
-        <v>32.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1091,10 +1094,10 @@
       <c r="C11" s="9"/>
       <c r="E11" s="9"/>
       <c r="G11" s="5">
+        <v>43</v>
+      </c>
+      <c r="I11" s="5">
         <v>40</v>
-      </c>
-      <c r="I11" s="5">
-        <v>32.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1144,8 +1147,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="5">
-        <f>$C15</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1157,14 +1159,14 @@
         <v>9</v>
       </c>
       <c r="E16" s="5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="G16" s="5">
         <f>$C16</f>
         <v>9</v>
       </c>
       <c r="I16" s="5">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1173,17 +1175,17 @@
         <v>Planning Manager</v>
       </c>
       <c r="C17" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="G17" s="5">
         <f>$C17</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="5">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1192,17 +1194,17 @@
         <v>Quality/Process Manager</v>
       </c>
       <c r="C18" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5">
         <f>$C18</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I18" s="5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1211,17 +1213,17 @@
         <v>Support Manager</v>
       </c>
       <c r="C19" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5">
         <f>$C19</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" s="5">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1237,19 +1239,19 @@
       </c>
       <c r="C21" s="5">
         <f>SUM(C15:C19)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5">
         <f>SUM(E15:E19)</f>
-        <v>32.5</v>
+        <v>35.5</v>
       </c>
       <c r="G21" s="5">
         <f>SUM(G15:G20)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I21" s="5">
         <f>SUM(I15:I20)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1278,136 +1280,150 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="5">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5">
-        <v>7</v>
-      </c>
-      <c r="G24" s="5">
-        <f>C24</f>
-        <v>7</v>
-      </c>
-      <c r="I24" s="5">
-        <f>C24</f>
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4.5</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5">
+        <v>7</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:G29" si="0">C25</f>
-        <v>6</v>
+        <f>C25</f>
+        <v>7</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" ref="I25:I29" si="1">C25</f>
-        <v>6</v>
+        <f>C25</f>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ref="G26:G30" si="0">C26</f>
+        <v>6</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ref="I26:I30" si="1">C26</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>12</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>11.5</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I27" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>3</v>
-      </c>
-    </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4">
         <v>3</v>
       </c>
       <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I29" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="4">
         <v>9</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <v>7.5</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I30" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="C31" s="4">
-        <f>SUM(C24:C29)</f>
+        <f>SUM(C24:C30)</f>
+        <v>43</v>
+      </c>
+      <c r="E31" s="4">
+        <f>SUM(E24:E30)</f>
+        <v>35.5</v>
+      </c>
+      <c r="G31" s="4">
+        <f>SUM(G24:G30)</f>
         <v>40</v>
       </c>
-      <c r="E31" s="4">
-        <f>SUM(E24:E29)</f>
-        <v>32.5</v>
-      </c>
-      <c r="G31" s="4">
-        <f>SUM(G24:G29)</f>
-        <v>37</v>
-      </c>
       <c r="I31" s="5">
-        <f>SUM(I24:I29)</f>
-        <v>40</v>
+        <f>SUM(I24:I30)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">

--- a/WEEK formos/WEEK 05-11.xlsx
+++ b/WEEK formos/WEEK 05-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDYING\Semester_6\Team_Software_Process\Cycle_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaponnik\Desktop\git repos\TSP\WEEK formos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{652CD3F8-C022-4C85-B639-09666944E556}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BECE1CB5-2C96-47B5-AF3F-C1A1D7FD30FD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27374" windowHeight="11164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -358,13 +358,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>153909</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>72428</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>18107</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -921,27 +921,27 @@
   <sheetPr codeName="WeekSummary"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="0.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="0.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="0.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="0.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="1.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="2"/>
-    <col min="12" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="str">
         <f>[0]!TSPProcessName &amp; " Week Summary - Form WEEK"</f>
         <v>TSPi Week Summary - Form WEEK</v>
@@ -951,7 +951,7 @@
       <c r="G1" s="9"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="16" customFormat="1" ht="12.85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>26</v>
       </c>
@@ -972,7 +972,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" s="16" customFormat="1" ht="12.85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" s="16" customFormat="1" ht="15.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="G13" s="9"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="24.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1473,13 +1473,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>153909</xdr:rowOff>
+                    <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>72428</xdr:colOff>
+                    <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>18107</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
